--- a/src/Avistamientos/PruebasGeneracionModelo/resultados.xlsx
+++ b/src/Avistamientos/PruebasGeneracionModelo/resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="304">
   <si>
     <t>30_dias_5__celdas_2_splits</t>
   </si>
@@ -100,6 +100,222 @@
     <t>45_dias_5__celdas_5_splits_params</t>
   </si>
   <si>
+    <t>45_dias_5__celdas_10_splits</t>
+  </si>
+  <si>
+    <t>45_dias_5__celdas_10_splits_params</t>
+  </si>
+  <si>
+    <t>45_dias_0__celdas_2_splits</t>
+  </si>
+  <si>
+    <t>45_dias_0__celdas_2_splits_params</t>
+  </si>
+  <si>
+    <t>45_dias_0__celdas_5_splits</t>
+  </si>
+  <si>
+    <t>45_dias_0__celdas_5_splits_params</t>
+  </si>
+  <si>
+    <t>45_dias_0__celdas_10_splits</t>
+  </si>
+  <si>
+    <t>45_dias_0__celdas_10_splits_params</t>
+  </si>
+  <si>
+    <t>60_dias_1__celdas_2_splits</t>
+  </si>
+  <si>
+    <t>60_dias_1__celdas_2_splits_params</t>
+  </si>
+  <si>
+    <t>60_dias_1__celdas_5_splits</t>
+  </si>
+  <si>
+    <t>60_dias_1__celdas_5_splits_params</t>
+  </si>
+  <si>
+    <t>60_dias_1__celdas_10_splits</t>
+  </si>
+  <si>
+    <t>60_dias_1__celdas_10_splits_params</t>
+  </si>
+  <si>
+    <t>45_dias_2__celdas_2_splits</t>
+  </si>
+  <si>
+    <t>45_dias_2__celdas_2_splits_params</t>
+  </si>
+  <si>
+    <t>45_dias_2__celdas_5_splits</t>
+  </si>
+  <si>
+    <t>45_dias_2__celdas_5_splits_params</t>
+  </si>
+  <si>
+    <t>45_dias_2__celdas_10_splits</t>
+  </si>
+  <si>
+    <t>45_dias_2__celdas_10_splits_params</t>
+  </si>
+  <si>
+    <t>60_dias_2__celdas_2_splits</t>
+  </si>
+  <si>
+    <t>60_dias_2__celdas_2_splits_params</t>
+  </si>
+  <si>
+    <t>60_dias_2__celdas_5_splits</t>
+  </si>
+  <si>
+    <t>60_dias_2__celdas_5_splits_params</t>
+  </si>
+  <si>
+    <t>60_dias_2__celdas_10_splits</t>
+  </si>
+  <si>
+    <t>60_dias_2__celdas_10_splits_params</t>
+  </si>
+  <si>
+    <t>30_dias_4__celdas_2_splits</t>
+  </si>
+  <si>
+    <t>30_dias_4__celdas_2_splits_params</t>
+  </si>
+  <si>
+    <t>30_dias_4__celdas_5_splits</t>
+  </si>
+  <si>
+    <t>30_dias_4__celdas_5_splits_params</t>
+  </si>
+  <si>
+    <t>30_dias_4__celdas_10_splits</t>
+  </si>
+  <si>
+    <t>30_dias_4__celdas_10_splits_params</t>
+  </si>
+  <si>
+    <t>15_dias_5__celdas_2_splits</t>
+  </si>
+  <si>
+    <t>15_dias_5__celdas_2_splits_params</t>
+  </si>
+  <si>
+    <t>15_dias_5__celdas_5_splits</t>
+  </si>
+  <si>
+    <t>15_dias_5__celdas_5_splits_params</t>
+  </si>
+  <si>
+    <t>15_dias_5__celdas_10_splits</t>
+  </si>
+  <si>
+    <t>15_dias_5__celdas_10_splits_params</t>
+  </si>
+  <si>
+    <t>60_dias_4__celdas_2_splits</t>
+  </si>
+  <si>
+    <t>60_dias_4__celdas_2_splits_params</t>
+  </si>
+  <si>
+    <t>60_dias_4__celdas_5_splits</t>
+  </si>
+  <si>
+    <t>60_dias_4__celdas_5_splits_params</t>
+  </si>
+  <si>
+    <t>60_dias_4__celdas_10_splits</t>
+  </si>
+  <si>
+    <t>60_dias_4__celdas_10_splits_params</t>
+  </si>
+  <si>
+    <t>15_dias_0__celdas_2_splits</t>
+  </si>
+  <si>
+    <t>15_dias_0__celdas_2_splits_params</t>
+  </si>
+  <si>
+    <t>15_dias_0__celdas_5_splits</t>
+  </si>
+  <si>
+    <t>15_dias_0__celdas_5_splits_params</t>
+  </si>
+  <si>
+    <t>15_dias_0__celdas_10_splits</t>
+  </si>
+  <si>
+    <t>15_dias_0__celdas_10_splits_params</t>
+  </si>
+  <si>
+    <t>60_dias_3__celdas_2_splits</t>
+  </si>
+  <si>
+    <t>60_dias_3__celdas_2_splits_params</t>
+  </si>
+  <si>
+    <t>60_dias_3__celdas_5_splits</t>
+  </si>
+  <si>
+    <t>60_dias_3__celdas_5_splits_params</t>
+  </si>
+  <si>
+    <t>60_dias_3__celdas_10_splits</t>
+  </si>
+  <si>
+    <t>60_dias_3__celdas_10_splits_params</t>
+  </si>
+  <si>
+    <t>45_dias_3__celdas_2_splits</t>
+  </si>
+  <si>
+    <t>45_dias_3__celdas_2_splits_params</t>
+  </si>
+  <si>
+    <t>45_dias_3__celdas_5_splits</t>
+  </si>
+  <si>
+    <t>45_dias_3__celdas_5_splits_params</t>
+  </si>
+  <si>
+    <t>45_dias_3__celdas_10_splits</t>
+  </si>
+  <si>
+    <t>45_dias_3__celdas_10_splits_params</t>
+  </si>
+  <si>
+    <t>15_dias_2__celdas_2_splits</t>
+  </si>
+  <si>
+    <t>15_dias_2__celdas_2_splits_params</t>
+  </si>
+  <si>
+    <t>15_dias_2__celdas_5_splits</t>
+  </si>
+  <si>
+    <t>15_dias_2__celdas_5_splits_params</t>
+  </si>
+  <si>
+    <t>15_dias_2__celdas_10_splits</t>
+  </si>
+  <si>
+    <t>15_dias_2__celdas_10_splits_params</t>
+  </si>
+  <si>
+    <t>30_dias_2__celdas_2_splits</t>
+  </si>
+  <si>
+    <t>30_dias_2__celdas_2_splits_params</t>
+  </si>
+  <si>
+    <t>30_dias_2__celdas_5_splits</t>
+  </si>
+  <si>
+    <t>30_dias_2__celdas_5_splits_params</t>
+  </si>
+  <si>
     <t>random_forest</t>
   </si>
   <si>
@@ -184,40 +400,199 @@
     <t>{'max_depth': 3, 'n_estimators': 17}</t>
   </si>
   <si>
-    <t>{'max_depth': 55, 'max_features': 1, 'n_estimators': 46}</t>
+    <t>{'max_depth': 85, 'max_features': 1, 'n_estimators': 161}</t>
+  </si>
+  <si>
+    <t>{'n_neighbors': 45}</t>
+  </si>
+  <si>
+    <t>{'max_features': None, 'max_depth': 1}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 50, 'n_estimators': 2}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 39, 'max_features': 16, 'n_estimators': 199}</t>
+  </si>
+  <si>
+    <t>{'n_neighbors': 9}</t>
+  </si>
+  <si>
+    <t>{'svr__kernel': 'rbf', 'svr__epsilon': 0.2, 'svr__C': 1.0}</t>
+  </si>
+  <si>
+    <t>{'svr__C': 1.0, 'svr__epsilon': 0.2, 'svr__kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'log2', 'max_depth': 1}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 9, 'max_features': 'sqrt'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'n_estimators': 191}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 60, 'max_features': 4, 'n_estimators': 187}</t>
+  </si>
+  <si>
+    <t>{'n_neighbors': 1}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'log2', 'max_depth': 43}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 15, 'max_features': 'sqrt'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'n_estimators': 146}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 52, 'max_features': 3, 'n_estimators': 64}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'log2', 'max_depth': 49}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 7, 'max_features': 'sqrt'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 45, 'n_estimators': 1}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 35, 'max_features': 11, 'n_estimators': 18}</t>
+  </si>
+  <si>
+    <t>{'n_neighbors': 56}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'sqrt', 'max_depth': 30}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 30, 'max_features': 'sqrt'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 7, 'n_estimators': 49}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 28, 'max_features': 1, 'n_estimators': 182}</t>
+  </si>
+  <si>
+    <t>{'n_neighbors': 5}</t>
+  </si>
+  <si>
+    <t>{'svr__kernel': 'linear', 'svr__epsilon': 0.2, 'svr__C': 0.5}</t>
+  </si>
+  <si>
+    <t>{'svr__C': 0.5, 'svr__epsilon': 0.2, 'svr__kernel': 'linear'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 11, 'max_features': 'sqrt'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'n_estimators': 63}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'max_features': 323, 'n_estimators': 55}</t>
+  </si>
+  <si>
+    <t>{'svr__kernel': 'linear', 'svr__epsilon': 0.2, 'svr__C': 1.0}</t>
+  </si>
+  <si>
+    <t>{'svr__C': 1.0, 'svr__epsilon': 0.2, 'svr__kernel': 'linear'}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'log2', 'max_depth': 9}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 25, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 86, 'max_features': 6, 'n_estimators': 190}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 21, 'max_features': 'sqrt'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'n_estimators': 25}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 2, 'max_features': 39, 'n_estimators': 153}</t>
+  </si>
+  <si>
+    <t>{'n_neighbors': 14}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'log2', 'max_depth': 30}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 23, 'max_features': 'sqrt'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 4, 'n_estimators': 44}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 2, 'max_features': 4, 'n_estimators': 140}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'log2', 'max_depth': 3}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 45, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 13, 'n_estimators': 4}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 15, 'max_features': 61, 'n_estimators': 118}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'log2', 'max_depth': 37}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 49, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 54, 'n_estimators': 1}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 39, 'max_features': 17, 'n_estimators': 118}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 5, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 3, 'n_estimators': 26}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 42, 'max_features': 3, 'n_estimators': 129}</t>
   </si>
   <si>
     <t>{'n_neighbors': 55}</t>
   </si>
   <si>
-    <t>{'max_features': 'log2', 'max_depth': 18}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 35, 'max_features': 'log2'}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 75, 'n_estimators': 5}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 25, 'max_features': 13, 'n_estimators': 4}</t>
-  </si>
-  <si>
-    <t>{'svr__kernel': 'rbf', 'svr__epsilon': 0.2, 'svr__C': 1.0}</t>
-  </si>
-  <si>
-    <t>{'svr__C': 1.0, 'svr__epsilon': 0.2, 'svr__kernel': 'rbf'}</t>
-  </si>
-  <si>
-    <t>{'max_features': 'sqrt', 'max_depth': 32}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 11, 'max_features': 'sqrt'}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 47, 'n_estimators': 12}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 19, 'max_features': 9, 'n_estimators': 167}</t>
+    <t>{'max_features': 'log2', 'max_depth': 36}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 38, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 8, 'n_estimators': 1}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 99, 'max_features': 5, 'n_estimators': 24}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 26, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 7, 'n_estimators': 109}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 97, 'max_features': 3, 'n_estimators': 50}</t>
   </si>
   <si>
     <t>{'svr__kernel': 'linear', 'svr__epsilon': 0.2, 'svr__C': 10}</t>
@@ -226,118 +601,331 @@
     <t>{'svr__C': 10, 'svr__epsilon': 0.2, 'svr__kernel': 'linear'}</t>
   </si>
   <si>
-    <t>{'max_features': 'log2', 'max_depth': 16}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 4, 'max_features': 'auto'}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 11, 'n_estimators': 196}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 52, 'max_features': 3, 'n_estimators': 64}</t>
-  </si>
-  <si>
-    <t>{'max_features': 'log2', 'max_depth': 49}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 7, 'max_features': 'sqrt'}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 45, 'n_estimators': 1}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 35, 'max_features': 11, 'n_estimators': 18}</t>
-  </si>
-  <si>
-    <t>{'n_neighbors': 56}</t>
-  </si>
-  <si>
-    <t>{'max_features': 'sqrt', 'max_depth': 30}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 30, 'max_features': 'sqrt'}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 7, 'n_estimators': 49}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 28, 'max_features': 1, 'n_estimators': 182}</t>
-  </si>
-  <si>
-    <t>{'n_neighbors': 5}</t>
-  </si>
-  <si>
-    <t>{'svr__kernel': 'linear', 'svr__epsilon': 0.2, 'svr__C': 0.5}</t>
-  </si>
-  <si>
-    <t>{'svr__C': 0.5, 'svr__epsilon': 0.2, 'svr__kernel': 'linear'}</t>
-  </si>
-  <si>
-    <t>{'max_features': 'log2', 'max_depth': 43}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 1, 'n_estimators': 63}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 1, 'max_features': 323, 'n_estimators': 55}</t>
-  </si>
-  <si>
-    <t>{'svr__kernel': 'linear', 'svr__epsilon': 0.2, 'svr__C': 1.0}</t>
-  </si>
-  <si>
-    <t>{'svr__C': 1.0, 'svr__epsilon': 0.2, 'svr__kernel': 'linear'}</t>
-  </si>
-  <si>
-    <t>{'max_features': 'log2', 'max_depth': 9}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 25, 'max_features': 'log2'}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 86, 'max_features': 6, 'n_estimators': 190}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 21, 'max_features': 'sqrt'}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 1, 'n_estimators': 25}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 2, 'max_features': 39, 'n_estimators': 153}</t>
-  </si>
-  <si>
-    <t>{'n_neighbors': 14}</t>
-  </si>
-  <si>
-    <t>{'max_features': 'log2', 'max_depth': 30}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 23, 'max_features': 'sqrt'}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 4, 'n_estimators': 44}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 2, 'max_features': 4, 'n_estimators': 140}</t>
-  </si>
-  <si>
-    <t>{'max_features': 'log2', 'max_depth': 3}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 45, 'max_features': 'log2'}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 13, 'n_estimators': 4}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 15, 'max_features': 61, 'n_estimators': 118}</t>
-  </si>
-  <si>
-    <t>{'max_features': 'log2', 'max_depth': 37}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 49, 'max_features': 'log2'}</t>
+    <t>{'max_features': 'log2', 'max_depth': 42}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 20, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 87, 'n_estimators': 15}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'max_features': 1, 'n_estimators': 99}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'log2', 'max_depth': 4}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 43, 'max_features': 'sqrt'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 32, 'n_estimators': 2}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 89, 'max_features': 81, 'n_estimators': 36}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'sqrt', 'max_depth': 19}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 14, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 5, 'n_estimators': 12}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 98, 'max_features': 1, 'n_estimators': 69}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'log2', 'max_depth': 45}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 7, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 63, 'n_estimators': 1}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 27, 'max_features': 1, 'n_estimators': 97}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'sqrt', 'max_depth': 9}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 37, 'max_features': 'sqrt'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'n_estimators': 106}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 99, 'max_features': 39, 'n_estimators': 42}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'log2', 'max_depth': 23}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 4, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 5, 'n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 43, 'max_features': 3, 'n_estimators': 48}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'log2', 'max_depth': 5}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 11, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'n_estimators': 34}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 31, 'max_features': 1, 'n_estimators': 89}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'sqrt', 'max_depth': 16}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 27, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 89, 'n_estimators': 2}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 28, 'max_features': 57, 'n_estimators': 9}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'sqrt', 'max_depth': 28}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 2, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 6, 'n_estimators': 164}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 17, 'max_features': 2, 'n_estimators': 135}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'log2', 'max_depth': 31}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 3, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'n_estimators': 102}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 15, 'max_features': 6, 'n_estimators': 178}</t>
+  </si>
+  <si>
+    <t>{'n_neighbors': 58}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'log2', 'max_depth': 34}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 87, 'n_estimators': 2}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 8, 'max_features': 9, 'n_estimators': 53}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'sqrt', 'max_depth': 44}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 2, 'max_features': 'sqrt'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 33, 'n_estimators': 5}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 31, 'max_features': 26, 'n_estimators': 166}</t>
+  </si>
+  <si>
+    <t>{'svr__kernel': 'rbf', 'svr__epsilon': 0.2, 'svr__C': 10}</t>
+  </si>
+  <si>
+    <t>{'svr__C': 10, 'svr__epsilon': 0.2, 'svr__kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'log2', 'max_depth': 6}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 4, 'max_features': 'sqrt'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'n_estimators': 5}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 67, 'max_features': 3, 'n_estimators': 182}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 19, 'max_features': 'sqrt'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 28, 'n_estimators': 1}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 96, 'max_features': 809, 'n_estimators': 2}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 13, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 95, 'n_estimators': 1}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 39, 'max_features': 27, 'n_estimators': 102}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 3, 'n_estimators': 15}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 59, 'max_features': 1, 'n_estimators': 94}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 10, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 35, 'n_estimators': 3}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 5, 'max_features': 34, 'n_estimators': 123}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'n_estimators': 4}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 62, 'max_features': 3, 'n_estimators': 41}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 24, 'n_estimators': 2}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 27, 'max_features': 1, 'n_estimators': 183}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'log2', 'max_depth': 29}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 27, 'max_features': 'sqrt'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 86, 'n_estimators': 1}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 52, 'max_features': 7, 'n_estimators': 13}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'sqrt', 'max_depth': 13}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 25, 'max_features': 'sqrt'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 7, 'n_estimators': 107}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 91, 'max_features': 5, 'n_estimators': 107}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'sqrt', 'max_depth': 11}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 6, 'max_features': None}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 12, 'n_estimators': 16}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 15, 'max_features': 2, 'n_estimators': 86}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'log2', 'max_depth': 28}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 2, 'n_estimators': 4}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 43, 'max_features': 36, 'n_estimators': 77}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'sqrt', 'max_depth': 47}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 63, 'n_estimators': 9}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 3, 'max_features': 379, 'n_estimators': 192}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 4, 'n_estimators': 132}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 46, 'max_features': 4, 'n_estimators': 147}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 3, 'n_estimators': 25}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 61, 'max_features': 13, 'n_estimators': 170}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'sqrt', 'max_depth': 6}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'n_estimators': 168}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 63, 'max_features': 6, 'n_estimators': 121}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'log2', 'max_depth': 11}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'n_estimators': 112}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 60, 'max_features': 3, 'n_estimators': 195}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'sqrt', 'max_depth': 17}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'n_estimators': 23}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 41, 'max_features': 6, 'n_estimators': 160}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'n_estimators': 17}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 2, 'max_features': 53, 'n_estimators': 185}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 22, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'max_features': 31, 'n_estimators': 164}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'log2', 'max_depth': 10}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 29, 'max_features': 'log2'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 1, 'n_estimators': 16}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 38, 'max_features': 32, 'n_estimators': 34}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'sqrt', 'max_depth': 38}</t>
   </si>
 </sst>
 </file>
@@ -695,13 +1283,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:101">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,721 +1374,2665 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:101">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="B2">
         <v>-0.04382303631444916</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="D2">
         <v>-0.5617950169697811</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="F2">
         <v>-0.7145843622682344</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="H2">
-        <v>0.05371222452506019</v>
+        <v>0.01578078265324551</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="J2">
-        <v>-0.9033671012923978</v>
+        <v>-0.8030539611954188</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="L2">
-        <v>-0.6077698841258304</v>
+        <v>-0.9291157697194666</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="N2">
         <v>0.00970883996261368</v>
       </c>
       <c r="O2" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="P2">
         <v>-1.416295546558104</v>
       </c>
       <c r="Q2" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="R2">
         <v>-0.9071854070859574</v>
       </c>
       <c r="S2" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="T2">
         <v>-0.009823046966399906</v>
       </c>
       <c r="U2" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="V2">
         <v>-0.4844596826187569</v>
       </c>
       <c r="W2" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="X2">
         <v>-0.6105256090790754</v>
       </c>
       <c r="Y2" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="Z2">
         <v>-0.00395795145372263</v>
       </c>
       <c r="AA2" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="AB2">
         <v>-0.6123371574488136</v>
       </c>
       <c r="AC2" t="s">
-        <v>105</v>
+        <v>177</v>
+      </c>
+      <c r="AD2">
+        <v>-0.4451254887129817</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF2">
+        <v>0.03492308759767287</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH2">
+        <v>-0.6397986558838368</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.5807726467052855</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL2">
+        <v>0.000568980561279353</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN2">
+        <v>-1.4341841880806</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP2">
+        <v>-0.8873173038702312</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR2">
+        <v>0.03172589034565054</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT2">
+        <v>-0.9128164379004401</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AV2">
+        <v>-1.003338820765392</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AX2">
+        <v>-0.00463086322085382</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AZ2">
+        <v>-0.7105188891531973</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>226</v>
+      </c>
+      <c r="BB2">
+        <v>-0.8412541575220294</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>230</v>
+      </c>
+      <c r="BD2">
+        <v>-0.007706618667233989</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF2">
+        <v>-0.6281111417153507</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH2">
+        <v>-0.6260198567325783</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>242</v>
+      </c>
+      <c r="BJ2">
+        <v>0.01469687130677189</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BL2">
+        <v>-0.2229654362245319</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BN2">
+        <v>-0.5142557831721303</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>254</v>
+      </c>
+      <c r="BP2">
+        <v>0.01312364001579158</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>256</v>
+      </c>
+      <c r="BR2">
+        <v>-0.7875592260236044</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>259</v>
+      </c>
+      <c r="BT2">
+        <v>-0.5555327551252025</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>261</v>
+      </c>
+      <c r="BV2">
+        <v>0.02947470838636995</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>263</v>
+      </c>
+      <c r="BX2">
+        <v>-0.8159262006591801</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ2">
+        <v>-0.5919166531594954</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>271</v>
+      </c>
+      <c r="CB2">
+        <v>0.04967448436301553</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>275</v>
+      </c>
+      <c r="CD2">
+        <v>-0.5368374522708843</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>278</v>
+      </c>
+      <c r="CF2">
+        <v>-0.6249460661946583</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>281</v>
+      </c>
+      <c r="CH2">
+        <v>-0.00848372193980107</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>283</v>
+      </c>
+      <c r="CJ2">
+        <v>-0.2459864432769813</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>285</v>
+      </c>
+      <c r="CL2">
+        <v>-0.5988573834667374</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>288</v>
+      </c>
+      <c r="CN2">
+        <v>-0.02305998467908249</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>291</v>
+      </c>
+      <c r="CP2">
+        <v>-0.8859831926144857</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>294</v>
+      </c>
+      <c r="CR2">
+        <v>-0.8330328269120182</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>296</v>
+      </c>
+      <c r="CT2">
+        <v>-0.01185819469695154</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CV2">
+        <v>-0.702020155103743</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:101">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="B3">
         <v>0.02206144668587262</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="D3">
         <v>-0.0270312926947955</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="F3">
         <v>-0.2815751067829417</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="H3">
-        <v>0.01322359267634327</v>
+        <v>0.01898919626239459</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="J3">
-        <v>-5.944239367337188</v>
+        <v>-3.645653363138327</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="L3">
-        <v>-3.565094550549936</v>
+        <v>-0.4045194879533886</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="N3">
         <v>0.0075150005910678</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="P3">
         <v>-6.83035862267802</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="R3">
         <v>-1.549773107488713</v>
       </c>
       <c r="S3" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="T3">
         <v>0.02762582970557581</v>
       </c>
       <c r="U3" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="V3">
         <v>-0.1730714636063894</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="X3">
         <v>-0.3248316011451814</v>
       </c>
       <c r="Y3" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="Z3">
         <v>0.02206144668587262</v>
       </c>
       <c r="AA3" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="AB3">
         <v>-0.0270312926947955</v>
       </c>
       <c r="AC3" t="s">
-        <v>46</v>
+        <v>118</v>
+      </c>
+      <c r="AD3">
+        <v>-0.2815751067829417</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF3">
+        <v>0.01322359267634327</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH3">
+        <v>-5.944239367337188</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ3">
+        <v>-3.565094550549936</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL3">
+        <v>0.0075150005910678</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN3">
+        <v>-6.83035862267802</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP3">
+        <v>-1.549773107488713</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR3">
+        <v>0.01898919626239459</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT3">
+        <v>-3.645653363138327</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AV3">
+        <v>-0.4045194879533886</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX3">
+        <v>0.01898919626239459</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ3">
+        <v>-3.645653363138327</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB3">
+        <v>-0.4045194879533886</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD3">
+        <v>0.02977041986750451</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BF3">
+        <v>-0.05773800773914005</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH3">
+        <v>-0.3699804363391096</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ3">
+        <v>0.02206144668587262</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL3">
+        <v>-0.0270312926947955</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BN3">
+        <v>-0.2815751067829417</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BP3">
+        <v>0.02977041986750451</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BR3">
+        <v>-0.05773800773914005</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT3">
+        <v>-0.3699804363391096</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BV3">
+        <v>0.01322359267634327</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>185</v>
+      </c>
+      <c r="BX3">
+        <v>-5.944239367337188</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ3">
+        <v>-3.565094550549936</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>111</v>
+      </c>
+      <c r="CB3">
+        <v>0.02762582970557581</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>150</v>
+      </c>
+      <c r="CD3">
+        <v>-0.1730714636063894</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CF3">
+        <v>-0.3248316011451814</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>169</v>
+      </c>
+      <c r="CH3">
+        <v>0.02762582970557581</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>150</v>
+      </c>
+      <c r="CJ3">
+        <v>-0.1730714636063894</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CL3">
+        <v>-0.3248316011451814</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>169</v>
+      </c>
+      <c r="CN3">
+        <v>0.01898919626239459</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>129</v>
+      </c>
+      <c r="CP3">
+        <v>-3.645653363138327</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CR3">
+        <v>-0.4045194879533886</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CT3">
+        <v>0.01898919626239459</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>129</v>
+      </c>
+      <c r="CV3">
+        <v>-3.645653363138327</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:101">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="B4">
         <v>0.02206144668587262</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="D4">
         <v>-0.0270312926947955</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="F4">
         <v>-0.2815751067829417</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="H4">
-        <v>0.01322359267634327</v>
+        <v>0.01898919626239459</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="J4">
-        <v>-5.944239367337188</v>
+        <v>-3.645653363138327</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="L4">
-        <v>-3.565094550549936</v>
+        <v>-0.4045194879533886</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="N4">
         <v>0.0075150005910678</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="P4">
         <v>-6.83035862267802</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="R4">
         <v>-1.549773107488713</v>
       </c>
       <c r="S4" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="T4">
         <v>0.02762582970557581</v>
       </c>
       <c r="U4" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="V4">
         <v>-0.1730714636063894</v>
       </c>
       <c r="W4" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="X4">
         <v>-0.3248316011451814</v>
       </c>
       <c r="Y4" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="Z4">
         <v>0.02206144668587262</v>
       </c>
       <c r="AA4" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="AB4">
         <v>-0.0270312926947955</v>
       </c>
       <c r="AC4" t="s">
-        <v>46</v>
+        <v>118</v>
+      </c>
+      <c r="AD4">
+        <v>-0.2815751067829417</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF4">
+        <v>0.01322359267634327</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH4">
+        <v>-5.944239367337188</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ4">
+        <v>-3.565094550549936</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL4">
+        <v>0.0075150005910678</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN4">
+        <v>-6.83035862267802</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP4">
+        <v>-1.549773107488713</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR4">
+        <v>0.01898919626239459</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT4">
+        <v>-3.645653363138327</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AV4">
+        <v>-0.4045194879533886</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX4">
+        <v>0.01898919626239459</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ4">
+        <v>-3.645653363138327</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB4">
+        <v>-0.4045194879533886</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD4">
+        <v>0.02977041986750451</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>235</v>
+      </c>
+      <c r="BF4">
+        <v>-0.05773800773914005</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH4">
+        <v>-0.3699804363391096</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ4">
+        <v>0.02206144668587262</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL4">
+        <v>-0.0270312926947955</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BN4">
+        <v>-0.2815751067829417</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BP4">
+        <v>0.02977041986750451</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>235</v>
+      </c>
+      <c r="BR4">
+        <v>-0.05773800773914005</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT4">
+        <v>-0.3699804363391096</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>155</v>
+      </c>
+      <c r="BV4">
+        <v>0.01322359267634327</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>185</v>
+      </c>
+      <c r="BX4">
+        <v>-5.944239367337188</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ4">
+        <v>-3.565094550549936</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>111</v>
+      </c>
+      <c r="CB4">
+        <v>0.02762582970557581</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>150</v>
+      </c>
+      <c r="CD4">
+        <v>-0.1730714636063894</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>125</v>
+      </c>
+      <c r="CF4">
+        <v>-0.3248316011451814</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>169</v>
+      </c>
+      <c r="CH4">
+        <v>0.02762582970557581</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>150</v>
+      </c>
+      <c r="CJ4">
+        <v>-0.1730714636063894</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>125</v>
+      </c>
+      <c r="CL4">
+        <v>-0.3248316011451814</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>169</v>
+      </c>
+      <c r="CN4">
+        <v>0.01898919626239459</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CP4">
+        <v>-3.645653363138327</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>134</v>
+      </c>
+      <c r="CR4">
+        <v>-0.4045194879533886</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>141</v>
+      </c>
+      <c r="CT4">
+        <v>0.01898919626239459</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CV4">
+        <v>-3.645653363138327</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:101">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="B5">
         <v>-0.03448705039853295</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>-0.06426640721622726</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="F5">
         <v>-0.1126306529351149</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="H5">
-        <v>-0.005043974183109756</v>
+        <v>-0.03474429641123555</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="J5">
-        <v>-0.05485011071588286</v>
+        <v>-0.05785493531122081</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="L5">
-        <v>-0.1018984454438266</v>
+        <v>-0.1118636958163866</v>
       </c>
       <c r="M5" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="N5">
         <v>-0.02752810345401757</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="P5">
         <v>-0.05618072979331896</v>
       </c>
       <c r="Q5" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="R5">
         <v>-0.1038383837315656</v>
       </c>
       <c r="S5" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="T5">
         <v>-0.02791337058495647</v>
       </c>
       <c r="U5" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="V5">
         <v>-0.06006191482185319</v>
       </c>
       <c r="W5" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="X5">
         <v>-0.1015246671802114</v>
       </c>
       <c r="Y5" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="Z5">
         <v>-0.03448705039853295</v>
       </c>
       <c r="AA5" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AB5">
         <v>-0.06426640721622726</v>
       </c>
       <c r="AC5" t="s">
-        <v>47</v>
+        <v>119</v>
+      </c>
+      <c r="AD5">
+        <v>-0.1126306529351149</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF5">
+        <v>-0.005043974183109756</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH5">
+        <v>-0.05485011071588286</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ5">
+        <v>-0.1018984454438266</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL5">
+        <v>-0.02752810345401757</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN5">
+        <v>-0.05618072979331896</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP5">
+        <v>-0.1038383837315656</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR5">
+        <v>-0.03474429641123555</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT5">
+        <v>-0.05785493531122081</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV5">
+        <v>-0.1118636958163866</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX5">
+        <v>-0.03474429641123555</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ5">
+        <v>-0.05785493531122081</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB5">
+        <v>-0.1118636958163866</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD5">
+        <v>-0.02460367275281905</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>156</v>
+      </c>
+      <c r="BF5">
+        <v>-0.06272873174957883</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH5">
+        <v>-0.1129819339327525</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>243</v>
+      </c>
+      <c r="BJ5">
+        <v>-0.03448705039853295</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BL5">
+        <v>-0.06426640721622726</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>119</v>
+      </c>
+      <c r="BN5">
+        <v>-0.1126306529351149</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BP5">
+        <v>-0.02460367275281905</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR5">
+        <v>-0.06272873174957883</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT5">
+        <v>-0.1129819339327525</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>243</v>
+      </c>
+      <c r="BV5">
+        <v>-0.005043974183109756</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BX5">
+        <v>-0.05485011071588286</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ5">
+        <v>-0.1018984454438266</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>193</v>
+      </c>
+      <c r="CB5">
+        <v>-0.02791337058495647</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>161</v>
+      </c>
+      <c r="CD5">
+        <v>-0.06006191482185319</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>135</v>
+      </c>
+      <c r="CF5">
+        <v>-0.1015246671802114</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>112</v>
+      </c>
+      <c r="CH5">
+        <v>-0.02791337058495647</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>161</v>
+      </c>
+      <c r="CJ5">
+        <v>-0.06006191482185319</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>135</v>
+      </c>
+      <c r="CL5">
+        <v>-0.1015246671802114</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>112</v>
+      </c>
+      <c r="CN5">
+        <v>-0.03474429641123555</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>112</v>
+      </c>
+      <c r="CP5">
+        <v>-0.05785493531122081</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>135</v>
+      </c>
+      <c r="CR5">
+        <v>-0.1118636958163866</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>112</v>
+      </c>
+      <c r="CT5">
+        <v>-0.03474429641123555</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>112</v>
+      </c>
+      <c r="CV5">
+        <v>-0.05785493531122081</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:101">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="B6">
         <v>-0.03448705039853295</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D6">
         <v>-0.06426640721622726</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="F6">
         <v>-0.1126306529351149</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="H6">
-        <v>-0.005043974183109756</v>
+        <v>-0.03474429641123555</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="J6">
-        <v>-0.05485011071588286</v>
+        <v>-0.05785493531122081</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="L6">
-        <v>-0.1018984454438266</v>
+        <v>-0.1118636958163866</v>
       </c>
       <c r="M6" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="N6">
         <v>-0.02752810345401757</v>
       </c>
       <c r="O6" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="P6">
         <v>-0.05618072979331896</v>
       </c>
       <c r="Q6" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="R6">
         <v>-0.1038383837315656</v>
       </c>
       <c r="S6" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="T6">
         <v>-0.02791337058495647</v>
       </c>
       <c r="U6" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="V6">
         <v>-0.06006191482185319</v>
       </c>
       <c r="W6" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="X6">
         <v>-0.1015246671802114</v>
       </c>
       <c r="Y6" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="Z6">
         <v>-0.03448705039853295</v>
       </c>
       <c r="AA6" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AB6">
         <v>-0.06426640721622726</v>
       </c>
       <c r="AC6" t="s">
-        <v>48</v>
+        <v>120</v>
+      </c>
+      <c r="AD6">
+        <v>-0.1126306529351149</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF6">
+        <v>-0.005043974183109756</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH6">
+        <v>-0.05485011071588286</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ6">
+        <v>-0.1018984454438266</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL6">
+        <v>-0.02752810345401757</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN6">
+        <v>-0.05618072979331896</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP6">
+        <v>-0.1038383837315656</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR6">
+        <v>-0.03474429641123555</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT6">
+        <v>-0.05785493531122081</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV6">
+        <v>-0.1118636958163866</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX6">
+        <v>-0.03474429641123555</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ6">
+        <v>-0.05785493531122081</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BB6">
+        <v>-0.1118636958163866</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD6">
+        <v>-0.02460367275281905</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF6">
+        <v>-0.06272873174957883</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BH6">
+        <v>-0.1129819339327525</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>244</v>
+      </c>
+      <c r="BJ6">
+        <v>-0.03448705039853295</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL6">
+        <v>-0.06426640721622726</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BN6">
+        <v>-0.1126306529351149</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP6">
+        <v>-0.02460367275281905</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR6">
+        <v>-0.06272873174957883</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT6">
+        <v>-0.1129819339327525</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>244</v>
+      </c>
+      <c r="BV6">
+        <v>-0.005043974183109756</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BX6">
+        <v>-0.05485011071588286</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BZ6">
+        <v>-0.1018984454438266</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>194</v>
+      </c>
+      <c r="CB6">
+        <v>-0.02791337058495647</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>162</v>
+      </c>
+      <c r="CD6">
+        <v>-0.06006191482185319</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>136</v>
+      </c>
+      <c r="CF6">
+        <v>-0.1015246671802114</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>113</v>
+      </c>
+      <c r="CH6">
+        <v>-0.02791337058495647</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>162</v>
+      </c>
+      <c r="CJ6">
+        <v>-0.06006191482185319</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>136</v>
+      </c>
+      <c r="CL6">
+        <v>-0.1015246671802114</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>113</v>
+      </c>
+      <c r="CN6">
+        <v>-0.03474429641123555</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>113</v>
+      </c>
+      <c r="CP6">
+        <v>-0.05785493531122081</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR6">
+        <v>-0.1118636958163866</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>113</v>
+      </c>
+      <c r="CT6">
+        <v>-0.03474429641123555</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>113</v>
+      </c>
+      <c r="CV6">
+        <v>-0.05785493531122081</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:101">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="B7">
         <v>0.002772360139454144</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="D7">
         <v>-0.2375220136293002</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="F7">
         <v>-0.220200538093284</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="H7">
-        <v>0.05552536404363007</v>
+        <v>-0.001421213723540982</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="J7">
-        <v>-0.5484523128014216</v>
+        <v>-0.3741752929777836</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="L7">
-        <v>-0.6575301459970992</v>
+        <v>-0.7271401862055606</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="N7">
         <v>0.0158092063310053</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="P7">
         <v>-0.4488088566512859</v>
       </c>
       <c r="Q7" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="R7">
         <v>-0.5839274736724314</v>
       </c>
       <c r="S7" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="T7">
         <v>-0.003021287960396579</v>
       </c>
       <c r="U7" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="V7">
         <v>-0.3382702404546993</v>
       </c>
       <c r="W7" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="X7">
         <v>-0.3262991233366725</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="Z7">
         <v>0.08958834205391009</v>
       </c>
       <c r="AA7" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="AB7">
         <v>-0.2948099399440635</v>
       </c>
       <c r="AC7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD7">
+        <v>-0.2208593285503952</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF7">
+        <v>0.0205069260778124</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH7">
+        <v>-0.4807594624956689</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ7">
+        <v>-0.4494602928784915</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL7">
+        <v>-0.02949054643242366</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN7">
+        <v>-0.3868689405400983</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP7">
+        <v>-0.8539311830804402</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR7">
+        <v>0.04648125964056582</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT7">
+        <v>-0.3801813276532531</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV7">
+        <v>-0.454675258076778</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX7">
+        <v>0.08500469933598387</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AZ7">
+        <v>-0.2928587273444309</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB7">
+        <v>-1.022478969373885</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>231</v>
+      </c>
+      <c r="BD7">
+        <v>-0.01359219332370177</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF7">
+        <v>-0.1171722597596468</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>239</v>
+      </c>
+      <c r="BH7">
+        <v>-0.2764104104873663</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>245</v>
+      </c>
+      <c r="BJ7">
+        <v>-0.02888744355527662</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>137</v>
+      </c>
+      <c r="BL7">
+        <v>-0.1110551089994361</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>245</v>
+      </c>
+      <c r="BN7">
+        <v>-0.1924843325627618</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP7">
+        <v>0.0331017696024774</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>174</v>
+      </c>
+      <c r="BR7">
+        <v>-0.08538873278083177</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>137</v>
+      </c>
+      <c r="BT7">
+        <v>-0.3557324005226571</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>178</v>
+      </c>
+      <c r="BV7">
+        <v>0.01370184426896814</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>264</v>
+      </c>
+      <c r="BX7">
+        <v>-0.412156160972046</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>268</v>
+      </c>
+      <c r="BZ7">
+        <v>-0.746338539433871</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>272</v>
+      </c>
+      <c r="CB7">
+        <v>0.002085140371808625</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>276</v>
+      </c>
+      <c r="CD7">
+        <v>-0.1654857229678168</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>279</v>
+      </c>
+      <c r="CF7">
+        <v>-0.618973285426078</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH7">
+        <v>-0.008746983678855735</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>137</v>
+      </c>
+      <c r="CJ7">
+        <v>-0.2127938395321058</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>286</v>
+      </c>
+      <c r="CL7">
+        <v>-0.2577498085698385</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>289</v>
+      </c>
+      <c r="CN7">
+        <v>0.2604660151687661</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>292</v>
+      </c>
+      <c r="CP7">
+        <v>-0.1945388840592973</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>174</v>
+      </c>
+      <c r="CR7">
+        <v>-0.5567083825692107</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>199</v>
+      </c>
+      <c r="CT7">
+        <v>0.02769001588968267</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>299</v>
+      </c>
+      <c r="CV7">
+        <v>-0.2580147872655183</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101">
+      <c r="A8" s="1" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="B8">
         <v>-0.002934302240380882</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="D8">
         <v>-0.05190767058380812</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="F8">
         <v>-0.09784729610838398</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="H8">
-        <v>0.01918535168468632</v>
+        <v>0.02875967346834474</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="J8">
-        <v>-0.5307897975972999</v>
+        <v>-0.07567318693586227</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="L8">
-        <v>-0.6267854276201676</v>
+        <v>-0.5771676296777086</v>
       </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="N8">
         <v>0.08023627434115405</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="P8">
         <v>-0.3545725381445964</v>
       </c>
       <c r="Q8" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="R8">
         <v>-0.6907244153576657</v>
       </c>
       <c r="S8" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="T8">
         <v>-0.01170634636111773</v>
       </c>
       <c r="U8" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="V8">
         <v>-0.1850442654348947</v>
       </c>
       <c r="W8" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="X8">
         <v>-0.3673301938880122</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="Z8">
         <v>0.1170360614646261</v>
       </c>
       <c r="AA8" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="AB8">
         <v>-0.09046257879596989</v>
       </c>
       <c r="AC8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD8">
+        <v>-0.1854267567817172</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF8">
+        <v>0.004770562449113724</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH8">
+        <v>-0.232724868752432</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ8">
+        <v>-0.5319491239406695</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL8">
+        <v>0.004498450481135514</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN8">
+        <v>-0.424369089711991</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP8">
+        <v>-0.6627637338466165</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR8">
+        <v>0.1786791149037283</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>212</v>
+      </c>
+      <c r="AT8">
+        <v>-0.2729944724989464</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AV8">
+        <v>-1.165456307288998</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX8">
+        <v>0.01196826648153448</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AZ8">
+        <v>-0.3214251393477201</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>228</v>
+      </c>
+      <c r="BB8">
+        <v>-0.3524322405977334</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>232</v>
+      </c>
+      <c r="BD8">
+        <v>-0.01043921007568799</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF8">
+        <v>-0.1083344477417342</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>240</v>
+      </c>
+      <c r="BH8">
+        <v>-0.1885686797933553</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>246</v>
+      </c>
+      <c r="BJ8">
+        <v>0.1161452308884374</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>249</v>
+      </c>
+      <c r="BL8">
+        <v>-0.1372346776190457</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>252</v>
+      </c>
+      <c r="BN8">
+        <v>-0.2019925153132607</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>126</v>
+      </c>
+      <c r="BP8">
+        <v>0.03678822372441864</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>257</v>
+      </c>
+      <c r="BR8">
+        <v>-0.05979777619415305</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>126</v>
+      </c>
+      <c r="BT8">
+        <v>-0.1921227854160838</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>246</v>
+      </c>
+      <c r="BV8">
+        <v>0.07473098313407062</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>265</v>
+      </c>
+      <c r="BX8">
+        <v>-0.437751700653811</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>269</v>
+      </c>
+      <c r="BZ8">
+        <v>-0.4001399480259581</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>273</v>
+      </c>
+      <c r="CB8">
+        <v>0.0485409859275695</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>131</v>
+      </c>
+      <c r="CD8">
+        <v>-0.05759528161079079</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>126</v>
+      </c>
+      <c r="CF8">
+        <v>-0.4836403254194897</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>126</v>
+      </c>
+      <c r="CH8">
+        <v>0.006277207621468772</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>232</v>
+      </c>
+      <c r="CJ8">
+        <v>-0.08714400872769397</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>204</v>
+      </c>
+      <c r="CL8">
+        <v>-0.1832466113291961</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>228</v>
+      </c>
+      <c r="CN8">
+        <v>0.002817562575214424</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>228</v>
+      </c>
+      <c r="CP8">
+        <v>-0.1677156742638894</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>240</v>
+      </c>
+      <c r="CR8">
+        <v>-0.9185457118380989</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>297</v>
+      </c>
+      <c r="CT8">
+        <v>0.06727815583004465</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>300</v>
+      </c>
+      <c r="CV8">
+        <v>-0.3615525229973999</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:101">
+      <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:101">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="B10">
         <v>-0.005724942514330311</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D10">
         <v>-7.78342113762496</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="F10">
         <v>-1.506269795941949</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="H10">
-        <v>-0.0303097838168872</v>
+        <v>-0.007160422941713818</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="J10">
-        <v>-0.7887557847347277</v>
+        <v>-2.297165193010301</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="L10">
-        <v>-0.6785006000837617</v>
+        <v>-1.390147992726051</v>
       </c>
       <c r="M10" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="N10">
         <v>-0.008907489230156274</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="P10">
         <v>-1.322606441779779</v>
       </c>
       <c r="Q10" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="R10">
         <v>-1.398719596878638</v>
       </c>
       <c r="S10" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="T10">
         <v>0.02026673633733778</v>
       </c>
       <c r="U10" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="V10">
         <v>-1.104934368899173</v>
       </c>
       <c r="W10" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="X10">
         <v>-3.879680266702548</v>
       </c>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="Z10">
         <v>-0.0571886516299428</v>
       </c>
       <c r="AA10" t="s">
-        <v>104</v>
+        <v>176</v>
+      </c>
+      <c r="AB10">
+        <v>-3.04783661915106</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD10">
+        <v>-1.835668373327437</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF10">
+        <v>0.001822418459473729</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH10">
+        <v>-0.6754169457094565</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ10">
+        <v>-0.8384516961141338</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL10">
+        <v>-0.01364351743402126</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN10">
+        <v>-1.621447134536304</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AP10">
+        <v>-2.746629741291283</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR10">
+        <v>-0.02613336363521934</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>213</v>
+      </c>
+      <c r="AT10">
+        <v>-1.615241806780061</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV10">
+        <v>-0.9563787217621286</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>221</v>
+      </c>
+      <c r="AX10">
+        <v>-0.002887106507524662</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>225</v>
+      </c>
+      <c r="AZ10">
+        <v>-2.038599648834801</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>229</v>
+      </c>
+      <c r="BB10">
+        <v>-1.314741447788384</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD10">
+        <v>0.01467140449934301</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>237</v>
+      </c>
+      <c r="BF10">
+        <v>-9.492589220237516</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>241</v>
+      </c>
+      <c r="BH10">
+        <v>-1.672758647625478</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ10">
+        <v>-0.003694165462025112</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>250</v>
+      </c>
+      <c r="BL10">
+        <v>-3.041436452989381</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>253</v>
+      </c>
+      <c r="BN10">
+        <v>-1.441656110479263</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>255</v>
+      </c>
+      <c r="BP10">
+        <v>0.0009111282760407846</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>258</v>
+      </c>
+      <c r="BR10">
+        <v>-4.304510629839248</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>260</v>
+      </c>
+      <c r="BT10">
+        <v>-1.861317621954427</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>262</v>
+      </c>
+      <c r="BV10">
+        <v>0.0002745232313338675</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>266</v>
+      </c>
+      <c r="BX10">
+        <v>-0.6524150690202998</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ10">
+        <v>-0.550509588477438</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>274</v>
+      </c>
+      <c r="CB10">
+        <v>-0.01159439359725267</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>277</v>
+      </c>
+      <c r="CD10">
+        <v>-1.442778378698589</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>280</v>
+      </c>
+      <c r="CF10">
+        <v>-1.604908040187822</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>282</v>
+      </c>
+      <c r="CH10">
+        <v>-0.06541473968489153</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>284</v>
+      </c>
+      <c r="CJ10">
+        <v>-1.183421355253671</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>287</v>
+      </c>
+      <c r="CL10">
+        <v>-0.7471089226044871</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>290</v>
+      </c>
+      <c r="CN10">
+        <v>-0.008206978215384964</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>293</v>
+      </c>
+      <c r="CP10">
+        <v>-1.508025261338886</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>295</v>
+      </c>
+      <c r="CR10">
+        <v>-0.967060476642453</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>221</v>
+      </c>
+      <c r="CT10">
+        <v>-0.007385409607705506</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:101">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
